--- a/src/test/resources/testdata/Zomatosheet.xlsx
+++ b/src/test/resources/testdata/Zomatosheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanuja\OneDrive\Desktop\Tanujaprograms\Zomato\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7191E91-7BDC-4601-BC92-FF30CFE1537D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB37D9AE-16DF-494E-9D88-A8D25627B7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Signup" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -371,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,7 +384,7 @@
     <col min="2" max="2" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,7 +392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -399,13 +400,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
